--- a/Proyectos/2017/10/P2659 - CCONUA,SergiodeLeon_EM/Compras/P2659 - CCONUA,SergiodeLeon_EM.xlsx
+++ b/Proyectos/2017/10/P2659 - CCONUA,SergiodeLeon_EM/Compras/P2659 - CCONUA,SergiodeLeon_EM.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -798,7 +798,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -2850,6 +2850,9 @@
     <xf numFmtId="49" fontId="69" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="70" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="70" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2870,9 +2873,6 @@
     </xf>
     <xf numFmtId="44" fontId="69" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="70" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="70" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3491,7 +3491,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4192,13 +4192,17 @@
     <row r="23" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="156">
-        <v>0</v>
-      </c>
-      <c r="C23" s="157"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="157" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="159"/>
+      <c r="E23" s="159" t="s">
+        <v>72</v>
+      </c>
       <c r="F23" s="159"/>
       <c r="G23" s="159"/>
       <c r="H23" s="159" t="s">
@@ -4211,29 +4215,29 @@
       <c r="K23" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="168" t="s">
+      <c r="L23" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="M23" s="161" t="s">
+      <c r="M23" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="161" t="s">
+      <c r="N23" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="162" t="s">
+      <c r="O23" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="P23" s="163">
+      <c r="P23" s="164">
         <v>545.17999999999995</v>
       </c>
-      <c r="Q23" s="164">
-        <v>0</v>
-      </c>
-      <c r="R23" s="165">
+      <c r="Q23" s="165">
+        <v>0</v>
+      </c>
+      <c r="R23" s="166">
         <v>545.17999999999995</v>
       </c>
-      <c r="S23" s="166"/>
-      <c r="T23" s="167">
+      <c r="S23" s="167"/>
+      <c r="T23" s="168">
         <f>R23*(1-S23)</f>
         <v>545.17999999999995</v>
       </c>
@@ -4255,24 +4259,24 @@
       <c r="I24" s="159"/>
       <c r="J24" s="159"/>
       <c r="K24" s="160"/>
-      <c r="L24" s="168"/>
+      <c r="L24" s="161"/>
       <c r="M24" s="169"/>
       <c r="N24" s="169"/>
       <c r="O24" s="170"/>
-      <c r="P24" s="163">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="164">
-        <v>0</v>
-      </c>
-      <c r="R24" s="165">
-        <f t="shared" ref="R23:R32" si="0">(P24*B24)*(1-Q24)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="166">
-        <v>0</v>
-      </c>
-      <c r="T24" s="167">
+      <c r="P24" s="164">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="165">
+        <v>0</v>
+      </c>
+      <c r="R24" s="166">
+        <f t="shared" ref="R24:R32" si="0">(P24*B24)*(1-Q24)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="167">
+        <v>0</v>
+      </c>
+      <c r="T24" s="168">
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
@@ -4294,24 +4298,24 @@
       <c r="I25" s="159"/>
       <c r="J25" s="159"/>
       <c r="K25" s="160"/>
-      <c r="L25" s="168"/>
+      <c r="L25" s="161"/>
       <c r="M25" s="169"/>
       <c r="N25" s="169"/>
       <c r="O25" s="170"/>
-      <c r="P25" s="163">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="164">
-        <v>0</v>
-      </c>
-      <c r="R25" s="165">
+      <c r="P25" s="164">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="165">
+        <v>0</v>
+      </c>
+      <c r="R25" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S25" s="166">
-        <v>0</v>
-      </c>
-      <c r="T25" s="167">
+      <c r="S25" s="167">
+        <v>0</v>
+      </c>
+      <c r="T25" s="168">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4333,24 +4337,24 @@
       <c r="I26" s="159"/>
       <c r="J26" s="159"/>
       <c r="K26" s="160"/>
-      <c r="L26" s="168"/>
+      <c r="L26" s="161"/>
       <c r="M26" s="169"/>
       <c r="N26" s="169"/>
       <c r="O26" s="170"/>
-      <c r="P26" s="163">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="164">
-        <v>0</v>
-      </c>
-      <c r="R26" s="165">
+      <c r="P26" s="164">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="165">
+        <v>0</v>
+      </c>
+      <c r="R26" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S26" s="166">
-        <v>0</v>
-      </c>
-      <c r="T26" s="167">
+      <c r="S26" s="167">
+        <v>0</v>
+      </c>
+      <c r="T26" s="168">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4372,24 +4376,24 @@
       <c r="I27" s="159"/>
       <c r="J27" s="159"/>
       <c r="K27" s="160"/>
-      <c r="L27" s="168"/>
+      <c r="L27" s="161"/>
       <c r="M27" s="169"/>
       <c r="N27" s="169"/>
       <c r="O27" s="170"/>
-      <c r="P27" s="163">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="164">
-        <v>0</v>
-      </c>
-      <c r="R27" s="165">
+      <c r="P27" s="164">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="165">
+        <v>0</v>
+      </c>
+      <c r="R27" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S27" s="166">
-        <v>0</v>
-      </c>
-      <c r="T27" s="167">
+      <c r="S27" s="167">
+        <v>0</v>
+      </c>
+      <c r="T27" s="168">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4411,24 +4415,24 @@
       <c r="I28" s="159"/>
       <c r="J28" s="159"/>
       <c r="K28" s="160"/>
-      <c r="L28" s="168"/>
+      <c r="L28" s="161"/>
       <c r="M28" s="169"/>
       <c r="N28" s="169"/>
       <c r="O28" s="170"/>
-      <c r="P28" s="163">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="164">
-        <v>0</v>
-      </c>
-      <c r="R28" s="165">
+      <c r="P28" s="164">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="165">
+        <v>0</v>
+      </c>
+      <c r="R28" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S28" s="166">
-        <v>0</v>
-      </c>
-      <c r="T28" s="167">
+      <c r="S28" s="167">
+        <v>0</v>
+      </c>
+      <c r="T28" s="168">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4448,24 +4452,24 @@
       <c r="I29" s="159"/>
       <c r="J29" s="159"/>
       <c r="K29" s="160"/>
-      <c r="L29" s="168"/>
+      <c r="L29" s="161"/>
       <c r="M29" s="169"/>
       <c r="N29" s="169"/>
       <c r="O29" s="170"/>
-      <c r="P29" s="163">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="164">
-        <v>0</v>
-      </c>
-      <c r="R29" s="165">
+      <c r="P29" s="164">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="165">
+        <v>0</v>
+      </c>
+      <c r="R29" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S29" s="166">
-        <v>0</v>
-      </c>
-      <c r="T29" s="167">
+      <c r="S29" s="167">
+        <v>0</v>
+      </c>
+      <c r="T29" s="168">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4485,24 +4489,24 @@
       <c r="I30" s="159"/>
       <c r="J30" s="159"/>
       <c r="K30" s="160"/>
-      <c r="L30" s="168"/>
+      <c r="L30" s="161"/>
       <c r="M30" s="169"/>
       <c r="N30" s="169"/>
       <c r="O30" s="170"/>
-      <c r="P30" s="163">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="164">
-        <v>0</v>
-      </c>
-      <c r="R30" s="165">
+      <c r="P30" s="164">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="165">
+        <v>0</v>
+      </c>
+      <c r="R30" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S30" s="166">
-        <v>0</v>
-      </c>
-      <c r="T30" s="167">
+      <c r="S30" s="167">
+        <v>0</v>
+      </c>
+      <c r="T30" s="168">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4524,24 +4528,24 @@
       <c r="I31" s="159"/>
       <c r="J31" s="159"/>
       <c r="K31" s="160"/>
-      <c r="L31" s="168"/>
+      <c r="L31" s="161"/>
       <c r="M31" s="169"/>
       <c r="N31" s="169"/>
       <c r="O31" s="170"/>
-      <c r="P31" s="163">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="164">
-        <v>0</v>
-      </c>
-      <c r="R31" s="165">
+      <c r="P31" s="164">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="165">
+        <v>0</v>
+      </c>
+      <c r="R31" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S31" s="166">
-        <v>0</v>
-      </c>
-      <c r="T31" s="167">
+      <c r="S31" s="167">
+        <v>0</v>
+      </c>
+      <c r="T31" s="168">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4567,20 +4571,20 @@
       <c r="M32" s="176"/>
       <c r="N32" s="176"/>
       <c r="O32" s="177"/>
-      <c r="P32" s="163">
+      <c r="P32" s="164">
         <v>0</v>
       </c>
       <c r="Q32" s="178">
         <v>0</v>
       </c>
-      <c r="R32" s="165">
+      <c r="R32" s="166">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S32" s="166">
-        <v>0</v>
-      </c>
-      <c r="T32" s="167">
+      <c r="S32" s="167">
+        <v>0</v>
+      </c>
+      <c r="T32" s="168">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4965,12 +4969,54 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="U2:U43"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -4987,54 +5033,12 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
